--- a/중간발표/엔티티속성정의서.xlsx
+++ b/중간발표/엔티티속성정의서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyCinema\중간발표\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{470A8362-4474-4F5C-8C8B-00B185C43817}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B8CC3E-D12D-4FEE-8D6D-78C43ADA91CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{38A8182A-ACC8-4E07-BA5C-816417FCF462}"/>
+    <workbookView xWindow="-2320" yWindow="1880" windowWidth="14400" windowHeight="7460" xr2:uid="{38A8182A-ACC8-4E07-BA5C-816417FCF462}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,13 +25,169 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>엔티티 타입명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엔티티 타입 설명</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+  <si>
+    <t>엔티티명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동의어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엔티티 구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엔티티 정의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초기볼륨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대볼륨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평균볼륨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관련속성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상영방식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화일정정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배우정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상영관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상영일정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좌석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관객종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예매정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예매좌석정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비회원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>본인인증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선호장르정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제방법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제정보내역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제자정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포인트정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포인트정보내역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화관이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상영방식, 상영금액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목, 개봉일, 감독, 시청등급, 상영시간, 장르, 줄거리, 예고편, 포스터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작일, 종료일, 영화상영여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예매순위, 예매율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배우이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상영관식별문자, 좌석수, 상영중여부</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -399,25 +555,622 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F7E6CA7-79EF-4865-85C9-CBEA9F8B92DA}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.58203125" customWidth="1"/>
     <col min="2" max="2" width="60.58203125" customWidth="1"/>
+    <col min="3" max="4" width="15.58203125" customWidth="1"/>
+    <col min="5" max="7" width="10.58203125" customWidth="1"/>
+    <col min="8" max="8" width="60.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/중간발표/엔티티속성정의서.xlsx
+++ b/중간발표/엔티티속성정의서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyCinema\중간발표\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B8CC3E-D12D-4FEE-8D6D-78C43ADA91CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{871ABD09-4BAA-490B-A3BB-7F60A1260B13}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2320" yWindow="1880" windowWidth="14400" windowHeight="7460" xr2:uid="{38A8182A-ACC8-4E07-BA5C-816417FCF462}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{38A8182A-ACC8-4E07-BA5C-816417FCF462}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="115">
   <si>
     <t>엔티티명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -123,10 +123,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>본인인증</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>관리자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -188,6 +184,306 @@
   </si>
   <si>
     <t>상영관식별문자, 좌석수, 상영중여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상영시각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좌석문자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관객수, 예매시각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>식별아이디, 구분코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원_아이디, 선호장르</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자_식별아이디, 이름, 전화번호, 생년월일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디, 비밀번호, 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제방법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제금액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제시각, 유효여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임시아이디, 임시비밀번호, 이름, 전화번호, 생년월일, 본인인증여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디, 비밀번호, 이름, 이메일, 전화번호, 생년월일, 본인인증여부, 누적포인트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시청가능여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>활용방식, 활용포인트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>활용시각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEJH'가 운영하는 멀티플렉스 영화관이 속한 공간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEJH'가 운영하는 멀티플렉스 상영관이 속한 공간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상영관이 진행중인 영화 상영방식에 대한 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정식적으로 상영가능한 모든 영화에 대한 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEJH'에서 상영가능한 영화 일정에 대한 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEJH'에서 상영했거나 하는 중인 영화 인기에 대한 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각각 영화에 속한 배우 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEJH'가 운영하는 영화 상영가능 공간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상영관에서 상영가능한 일자와 시각 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상영관, 상영일자와 시각에 대한 좌석 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEJH'를 이용하는 모든 사용자 구분에 대한 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입을 진행하지 않고, 본인인증만 완료한 사용자 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입과 본인인증 둘다 완료한 사용자 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원이 선호하는 장르 최소 3가지에 대한 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>본인인증 행위 진행을 위한 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEJH'를 운영하는 사용자 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예매단계 중인 관객에 대한 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예매단계를 완료한 상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예매단계 중인 좌석에 대한 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제단계에 이용할 결제방식에 대한 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제단계 중인 상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제단계에서 관객에 대한 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제단계에서 회원이 포인트 활용에 대한 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제단계를 완료한 포인트 상태에 대한 내역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제단계를 완료한 상태에 대한 내역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유형/기본</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개념/기본</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개념/중심</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개념/행위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유형/중심</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간/행위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간/중심</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엔티티 영명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관객종류, 할인율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>본인인증정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOCAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CINEMA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCREENWAY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOVIE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOVIESCHEDULE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOVIE_INFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACTOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>THEATER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHEDULE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOVIEGOERS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOKING_INFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOKINGSEAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NONMEMBER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMBER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAVORGENRE_INFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VERIFICATION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MANAGER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAYWAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAY_INFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAY_INFO_LIST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAYER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POINT_INFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POINT_INFO_LIST</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -195,7 +491,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,6 +504,15 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -234,12 +539,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -555,364 +869,685 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F7E6CA7-79EF-4865-85C9-CBEA9F8B92DA}">
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="F14" workbookViewId="0">
+      <selection activeCell="J26" sqref="J2:J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="15.58203125" customWidth="1"/>
-    <col min="2" max="2" width="60.58203125" customWidth="1"/>
-    <col min="3" max="4" width="15.58203125" customWidth="1"/>
+    <col min="2" max="2" width="50.58203125" customWidth="1"/>
+    <col min="3" max="3" width="10.58203125" customWidth="1"/>
+    <col min="4" max="4" width="15.58203125" customWidth="1"/>
     <col min="5" max="7" width="10.58203125" customWidth="1"/>
-    <col min="8" max="8" width="60.58203125" customWidth="1"/>
+    <col min="8" max="8" width="70.58203125" customWidth="1"/>
+    <col min="9" max="9" width="20.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I1" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="1">
+        <v>5</v>
+      </c>
       <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G2" s="1">
+        <v>5</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="1">
+        <v>14</v>
+      </c>
       <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G3" s="1">
+        <v>14</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="1">
+        <v>4</v>
+      </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G4" s="1">
+        <v>4</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" s="1">
+        <v>100</v>
+      </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G5" s="1">
+        <v>100</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1"/>
+      <c r="B6" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="1">
+        <v>100</v>
+      </c>
       <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G6" s="1">
+        <v>100</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="1"/>
+      <c r="B7" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="1">
+        <v>100</v>
+      </c>
       <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G7" s="1">
+        <v>100</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1000</v>
+      </c>
       <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G8" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="1"/>
+      <c r="B9" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="1">
+        <v>140</v>
+      </c>
       <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G9" s="1">
+        <v>140</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="1">
+        <v>700</v>
+      </c>
       <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G10" s="1">
+        <v>700</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="1">
+        <v>3500</v>
+      </c>
       <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G11" s="1">
+        <v>3500</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="1">
+        <v>4</v>
+      </c>
       <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G12" s="1">
+        <v>4</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F13" s="1">
+        <v>1750</v>
+      </c>
+      <c r="G13" s="1">
+        <v>875</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F14" s="1">
+        <v>3500</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1750</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="I14" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="1"/>
+      <c r="B15" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2</v>
+      </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H16" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H17" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H18" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="1"/>
+        <v>89</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="D20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2</v>
+      </c>
+      <c r="F20" s="1">
+        <v>2</v>
+      </c>
+      <c r="G20" s="1">
+        <v>2</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="1">
+        <v>3</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1">
+        <v>3</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A22" s="1" t="s">
+      <c r="B22" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1">
+        <v>1750</v>
+      </c>
+      <c r="G22" s="1">
+        <v>875</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A23" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A23" s="1" t="s">
+      <c r="B23" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1">
+        <v>1750</v>
+      </c>
+      <c r="G23" s="1">
+        <v>875</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A24" s="1" t="s">
+      <c r="B24" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1">
+        <v>1750</v>
+      </c>
+      <c r="G24" s="1">
+        <v>875</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A25" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A25" s="1" t="s">
+      <c r="B25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1">
+        <v>875</v>
+      </c>
+      <c r="G25" s="1">
+        <v>437</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A26" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+      <c r="D26" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F26" s="1">
+        <v>875</v>
+      </c>
+      <c r="G26" s="1">
+        <v>437</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -921,8 +1556,9 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -931,8 +1567,9 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -941,8 +1578,9 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -951,8 +1589,9 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -961,8 +1600,9 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -971,8 +1611,9 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -981,8 +1622,9 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -991,8 +1633,9 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1001,8 +1644,9 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1011,8 +1655,9 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1021,8 +1666,9 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1032,7 +1678,7 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1042,7 +1688,7 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1052,7 +1698,7 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1062,7 +1708,7 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1072,7 +1718,7 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -1082,7 +1728,7 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1092,7 +1738,7 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -1102,7 +1748,7 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -1112,7 +1758,7 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -1122,7 +1768,7 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>

--- a/중간발표/엔티티속성정의서.xlsx
+++ b/중간발표/엔티티속성정의서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyCinema\중간발표\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{871ABD09-4BAA-490B-A3BB-7F60A1260B13}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2228FCA8-8C22-4800-BA99-6A3A3872EC30}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{38A8182A-ACC8-4E07-BA5C-816417FCF462}"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10500" xr2:uid="{38A8182A-ACC8-4E07-BA5C-816417FCF462}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -871,8 +871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F7E6CA7-79EF-4865-85C9-CBEA9F8B92DA}">
   <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F14" workbookViewId="0">
-      <selection activeCell="J26" sqref="J2:J26"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>

--- a/중간발표/엔티티속성정의서.xlsx
+++ b/중간발표/엔티티속성정의서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyCinema\중간발표\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2228FCA8-8C22-4800-BA99-6A3A3872EC30}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADFF4E2D-A839-4DB8-BE9A-2C85E243ADA5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10500" xr2:uid="{38A8182A-ACC8-4E07-BA5C-816417FCF462}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{38A8182A-ACC8-4E07-BA5C-816417FCF462}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="131">
   <si>
     <t>엔티티명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,134 +99,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>관객종류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예매정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>예매좌석정보</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>사용자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비회원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>선호장르정보</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>결제방법</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제정보내역</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제자정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포인트정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포인트정보내역</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지역이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영화관이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상영방식, 상영금액</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제목, 개봉일, 감독, 시청등급, 상영시간, 장르, 줄거리, 예고편, 포스터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시작일, 종료일, 영화상영여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예매순위, 예매율</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>배우이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상영관식별문자, 좌석수, 상영중여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상영시각</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>좌석문자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관객수, 예매시각</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>식별아이디, 구분코드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>회원_아이디, 선호장르</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자_식별아이디, 이름, 전화번호, 생년월일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>아이디, 비밀번호, 이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>결제방법</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제금액</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제시각, 유효여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>임시아이디, 임시비밀번호, 이름, 전화번호, 생년월일, 본인인증여부</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -235,18 +123,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>시청가능여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>활용방식, 활용포인트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>활용시각</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DEJH'가 운영하는 멀티플렉스 영화관이 속한 공간</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -331,10 +207,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>결제단계에서 관객에 대한 정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>결제단계에서 회원이 포인트 활용에 대한 정보</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -379,14 +251,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>관객종류, 할인율</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>본인인증정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LOCAL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -403,18 +267,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MOVIESCHEDULE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MOVIE_INFO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ACTOR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>THEATER</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -427,30 +283,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MOVIEGOERS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOOKING_INFO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOOKINGSEAT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NONMEMBER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MEMBER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FAVORGENRE_INFO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -459,31 +291,261 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MANAGER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PAYWAT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PAY_INFO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PAY_INFO_LIST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PAYER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POINT_INFO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POINT_INFO_LIST</t>
+    <t>본인인증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비회원정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관객방식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예매자정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예매단계에서 관객에 대한 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제방식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신용카드정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무통장입금정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인터넷결제정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제내역정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포인트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포인트내역정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제방식 중 신용카드로 결제하기 위한 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제방식 중 인터넷결제로 결제하기 위한 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제방식 중 무통장입금으로 결제하기 위한 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.313.co.kr/confluence/pages/viewpage.action?pageId=6389778</t>
+  </si>
+  <si>
+    <t>참고하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.daum.net/question0921/1616</t>
+  </si>
+  <si>
+    <t>MOVIESCHEDULE_INFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACTOR_INFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_INFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NONMEMBER_INFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMBER_INFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MANAGER_INFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOVIEGOER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOKING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOKSEAT_INFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOKER_INFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAYWAY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREDITCARD_INFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEPOSIT_INFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ONLINEPAY_INFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAYING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAYLIST_INFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POINT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POINTLIST_INFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>식별문자, 제목, 개봉일, 감독, 시청등급, 상영시간, 장르, 줄거리, 예고편, 포스터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화_식별문자, 시작일, 종료일, 영화상영여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화_식별문자, 예매순위, 예매율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화_식별문자, 배우이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름, 전화번호, 생년월일, 아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보_아이디, 선호장르</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>식별문자, 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>식별문자, 이름, 지역_식별문자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>식별문자, 상영방식, 상영금액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>식별문자, 영화관_식별문자, 좌석수, 상영중여부, 상영방식_식별문자, 영화_식별문자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>식별문자, 상영일자, 상영관_식별문자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좌석문자, 좌석여부, 상영일정_식별문자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>식별문자, 관객방식, 할인율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>식별문자, 관객수, 예매시각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예매_식별문자, 좌석_식별문자, 관객방식_식별문자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자정보_식별아이디, 시청가능여부, 영화_식별문자, 예매_식별문자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>식별문자, 구분코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제방식_식별문자, 카드사, 카드번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제방식_식별문자, QR코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제방식_식별문자, 은행이름, 계좌번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>식별문자, 결제금액, 예매_식별문자, 결제방식_식별문자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제_식별문자, 사용자정보_식별아이디, 결제시각, 유효여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>식별문자, 활용방식, 활용포인트, 회원정보_아이디, 결제_식별문자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포인트_식별문자, 회원정보_아이디, 활용시각</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -491,7 +553,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -509,6 +571,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
@@ -539,7 +609,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -554,6 +624,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -869,10 +948,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F7E6CA7-79EF-4865-85C9-CBEA9F8B92DA}">
-  <dimension ref="A1:J52"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -912,911 +991,694 @@
         <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="E2" s="1">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="J2" s="1"/>
+        <v>107</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="E3" s="1">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J3" s="1"/>
+        <v>108</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>57</v>
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="E4" s="1">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J4" s="1"/>
+        <v>109</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="E5" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="J5" s="1"/>
+        <v>110</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>59</v>
+        <v>66</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E6" s="1">
-        <v>100</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="1">
-        <v>100</v>
-      </c>
+      <c r="G6" s="1"/>
       <c r="H6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>94</v>
+        <v>111</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="E7" s="1">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="F7" s="1"/>
-      <c r="G7" s="1">
-        <v>100</v>
-      </c>
+      <c r="G7" s="1"/>
       <c r="H7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J7" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1000</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="1">
-        <v>1000</v>
-      </c>
+      <c r="G8" s="1"/>
       <c r="H8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="J8" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E9" s="1">
-        <v>140</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="1">
-        <v>140</v>
-      </c>
+      <c r="G9" s="1"/>
       <c r="H9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="J9" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E10" s="1">
-        <v>700</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="1">
-        <v>700</v>
-      </c>
+      <c r="G10" s="1"/>
       <c r="H10" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="J10" s="1"/>
+        <v>112</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="E11" s="1">
-        <v>3500</v>
-      </c>
-      <c r="F11" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2</v>
+      </c>
       <c r="G11" s="1">
-        <v>3500</v>
+        <v>2</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="J11" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>71</v>
+        <v>8</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="E12" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="J12" s="1"/>
+        <v>113</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>72</v>
+        <v>9</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1">
-        <v>1750</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="E13" s="1">
+        <v>14</v>
+      </c>
+      <c r="F13" s="1"/>
       <c r="G13" s="1">
-        <v>875</v>
+        <v>14</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="J13" s="1"/>
+        <v>114</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1">
-        <v>3500</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="E14" s="1">
+        <v>4</v>
+      </c>
+      <c r="F14" s="1"/>
       <c r="G14" s="1">
-        <v>1750</v>
-      </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="J14" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="E15" s="1">
-        <v>2</v>
+        <v>140</v>
       </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="G15" s="1">
+        <v>140</v>
+      </c>
       <c r="H15" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="J15" s="1"/>
+        <v>116</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E16" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="E16" s="1">
+        <v>700</v>
+      </c>
       <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="G16" s="1">
+        <v>700</v>
+      </c>
       <c r="H16" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+        <v>117</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E17" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="E17" s="1">
+        <v>3500</v>
+      </c>
       <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="G17" s="1">
+        <v>3500</v>
+      </c>
       <c r="H17" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+        <v>118</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E18" s="1"/>
+        <v>49</v>
+      </c>
+      <c r="E18" s="1">
+        <v>4</v>
+      </c>
       <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="G18" s="1">
+        <v>4</v>
+      </c>
       <c r="H18" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+        <v>119</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="F19" s="1">
+        <v>1750</v>
+      </c>
+      <c r="G19" s="1">
+        <v>875</v>
+      </c>
       <c r="H19" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+        <v>120</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>70</v>
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E20" s="1">
-        <v>2</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="E20" s="1"/>
       <c r="F20" s="1">
-        <v>2</v>
+        <v>3500</v>
       </c>
       <c r="G20" s="1">
-        <v>2</v>
+        <v>1750</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+        <v>121</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>74</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E21" s="1">
-        <v>3</v>
-      </c>
-      <c r="F21" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1">
+        <v>1750</v>
+      </c>
       <c r="G21" s="1">
-        <v>3</v>
+        <v>875</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+        <v>122</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1">
-        <v>1750</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="E22" s="1">
+        <v>3</v>
+      </c>
+      <c r="F22" s="1"/>
       <c r="G22" s="1">
-        <v>875</v>
+        <v>3</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="J22" s="1"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+        <v>123</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1">
-        <v>1750</v>
-      </c>
-      <c r="G23" s="1">
-        <v>875</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="J23" s="1"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A25" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1">
-        <v>1750</v>
-      </c>
-      <c r="G24" s="1">
-        <v>875</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="J24" s="1"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="E25" s="1"/>
-      <c r="F25" s="1">
-        <v>875</v>
-      </c>
-      <c r="G25" s="1">
-        <v>437</v>
-      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
       <c r="H25" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="J25" s="1"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
+        <v>125</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1">
+        <v>1750</v>
+      </c>
+      <c r="G26" s="1">
         <v>875</v>
       </c>
-      <c r="G26" s="1">
+      <c r="H26" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A27" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1">
+        <v>1750</v>
+      </c>
+      <c r="G27" s="1">
+        <v>875</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A28" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1">
+        <v>875</v>
+      </c>
+      <c r="G28" s="1">
         <v>437</v>
       </c>
-      <c r="H26" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="J26" s="1"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
+      <c r="H28" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A29" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
+      <c r="D29" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
+      <c r="F29" s="1">
+        <v>875</v>
+      </c>
+      <c r="G29" s="1">
+        <v>437</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>87</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B34" s="5" t="s">
+        <v>88</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/중간발표/엔티티속성정의서.xlsx
+++ b/중간발표/엔티티속성정의서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyCinema\중간발표\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADFF4E2D-A839-4DB8-BE9A-2C85E243ADA5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64FBF9EA-3E04-43BC-9753-D191537499D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{38A8182A-ACC8-4E07-BA5C-816417FCF462}"/>
   </bookViews>
@@ -529,10 +529,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>결제방식_식별문자, 은행이름, 계좌번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>식별문자, 결제금액, 예매_식별문자, 결제방식_식별문자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -546,6 +542,10 @@
   </si>
   <si>
     <t>포인트_식별문자, 회원정보_아이디, 활용시각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제방식_식별문자, 은행사, 계좌번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -950,8 +950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F7E6CA7-79EF-4865-85C9-CBEA9F8B92DA}">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="C17" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1540,7 +1540,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="4" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="I24" s="6" t="s">
         <v>101</v>
@@ -1586,7 +1586,7 @@
         <v>875</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I26" s="6" t="s">
         <v>103</v>
@@ -1611,7 +1611,7 @@
         <v>875</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>104</v>
@@ -1636,7 +1636,7 @@
         <v>437</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I28" s="6" t="s">
         <v>105</v>
@@ -1661,7 +1661,7 @@
         <v>437</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I29" s="6" t="s">
         <v>106</v>
